--- a/natmiOut/OldD2/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -85,19 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H2">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I2">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J2">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>139.5812693935866</v>
+        <v>55.54655685509024</v>
       </c>
       <c r="R2">
-        <v>139.5812693935866</v>
+        <v>222.186227420361</v>
       </c>
       <c r="S2">
-        <v>0.1017267268175707</v>
+        <v>0.02734766058066635</v>
       </c>
       <c r="T2">
-        <v>0.1017267268175707</v>
+        <v>0.01494791220781178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H3">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I3">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J3">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>94.45915332710427</v>
+        <v>40.084207725444</v>
       </c>
       <c r="R3">
-        <v>94.45915332710427</v>
+        <v>240.505246352664</v>
       </c>
       <c r="S3">
-        <v>0.06884176170393005</v>
+        <v>0.01973496413792407</v>
       </c>
       <c r="T3">
-        <v>0.06884176170393005</v>
+        <v>0.0161803517244846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H4">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I4">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J4">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>71.26266193029605</v>
+        <v>28.5304230730485</v>
       </c>
       <c r="R4">
-        <v>71.26266193029605</v>
+        <v>171.182538438291</v>
       </c>
       <c r="S4">
-        <v>0.05193617577753025</v>
+        <v>0.01404660109644657</v>
       </c>
       <c r="T4">
-        <v>0.05193617577753025</v>
+        <v>0.01151656241610703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H5">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I5">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J5">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>67.00466719777211</v>
+        <v>26.8778854873675</v>
       </c>
       <c r="R5">
-        <v>67.00466719777211</v>
+        <v>161.267312924205</v>
       </c>
       <c r="S5">
-        <v>0.04883295233768081</v>
+        <v>0.01323299464541311</v>
       </c>
       <c r="T5">
-        <v>0.04883295233768081</v>
+        <v>0.01084950072544334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H6">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I6">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J6">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>98.44838883365773</v>
+        <v>41.086261549482</v>
       </c>
       <c r="R6">
-        <v>98.44838883365773</v>
+        <v>246.517569296892</v>
       </c>
       <c r="S6">
-        <v>0.07174911361689928</v>
+        <v>0.02022831295043176</v>
       </c>
       <c r="T6">
-        <v>0.07174911361689928</v>
+        <v>0.01658483978199728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.848146413516493</v>
+        <v>0.3375105</v>
       </c>
       <c r="H7">
-        <v>0.848146413516493</v>
+        <v>0.675021</v>
       </c>
       <c r="I7">
-        <v>0.4293551132336417</v>
+        <v>0.1178389669178411</v>
       </c>
       <c r="J7">
-        <v>0.4293551132336417</v>
+        <v>0.08278648937091339</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>118.3705677120529</v>
+        <v>47.22050830552725</v>
       </c>
       <c r="R7">
-        <v>118.3705677120529</v>
+        <v>188.882033222109</v>
       </c>
       <c r="S7">
-        <v>0.0862683829800306</v>
+        <v>0.02324843350695922</v>
       </c>
       <c r="T7">
-        <v>0.0862683829800306</v>
+        <v>0.01270732251506936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.817400546469663</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H8">
-        <v>0.817400546469663</v>
+        <v>2.806097</v>
       </c>
       <c r="I8">
-        <v>0.4137907071158041</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J8">
-        <v>0.4137907071158041</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>134.5213562906003</v>
+        <v>153.9399283394129</v>
       </c>
       <c r="R8">
-        <v>134.5213562906003</v>
+        <v>923.639570036477</v>
       </c>
       <c r="S8">
-        <v>0.09803906585715395</v>
+        <v>0.07579042065597576</v>
       </c>
       <c r="T8">
-        <v>0.09803906585715395</v>
+        <v>0.06213923952381336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.817400546469663</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H9">
-        <v>0.817400546469663</v>
+        <v>2.806097</v>
       </c>
       <c r="I9">
-        <v>0.4137907071158041</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J9">
-        <v>0.4137907071158041</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>91.03494670043226</v>
+        <v>111.0880748359387</v>
       </c>
       <c r="R9">
-        <v>91.03494670043226</v>
+        <v>999.7926735234481</v>
       </c>
       <c r="S9">
-        <v>0.06634620242443848</v>
+        <v>0.05469284033389216</v>
       </c>
       <c r="T9">
-        <v>0.06634620242443848</v>
+        <v>0.06726255395464892</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.817400546469663</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H10">
-        <v>0.817400546469663</v>
+        <v>2.806097</v>
       </c>
       <c r="I10">
-        <v>0.4137907071158041</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J10">
-        <v>0.4137907071158041</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>68.67934342043186</v>
+        <v>79.06829031394301</v>
       </c>
       <c r="R10">
-        <v>68.67934342043186</v>
+        <v>711.6146128254871</v>
       </c>
       <c r="S10">
-        <v>0.05005345514117672</v>
+        <v>0.03892829526482428</v>
       </c>
       <c r="T10">
-        <v>0.05005345514117672</v>
+        <v>0.04787494203313778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.817400546469663</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H11">
-        <v>0.817400546469663</v>
+        <v>2.806097</v>
       </c>
       <c r="I11">
-        <v>0.4137907071158041</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J11">
-        <v>0.4137907071158041</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>64.57570380613508</v>
+        <v>74.48850117990945</v>
       </c>
       <c r="R11">
-        <v>64.57570380613508</v>
+        <v>670.3965106191851</v>
       </c>
       <c r="S11">
-        <v>0.04706272559834516</v>
+        <v>0.03667349270171823</v>
       </c>
       <c r="T11">
-        <v>0.04706272559834516</v>
+        <v>0.04510193229123893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.817400546469663</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H12">
-        <v>0.817400546469663</v>
+        <v>2.806097</v>
       </c>
       <c r="I12">
-        <v>0.4137907071158041</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J12">
-        <v>0.4137907071158041</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>94.87956978801142</v>
+        <v>113.8651343441827</v>
       </c>
       <c r="R12">
-        <v>94.87956978801142</v>
+        <v>1024.786209097644</v>
       </c>
       <c r="S12">
-        <v>0.06914816091246367</v>
+        <v>0.05606009125174647</v>
       </c>
       <c r="T12">
-        <v>0.06914816091246367</v>
+        <v>0.06894403160456226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.817400546469663</v>
+        <v>0.9353656666666668</v>
       </c>
       <c r="H13">
-        <v>0.817400546469663</v>
+        <v>2.806097</v>
       </c>
       <c r="I13">
-        <v>0.4137907071158041</v>
+        <v>0.3265750957389998</v>
       </c>
       <c r="J13">
-        <v>0.4137907071158041</v>
+        <v>0.3441476923892027</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>114.079556538589</v>
+        <v>130.8653870962189</v>
       </c>
       <c r="R13">
-        <v>114.079556538589</v>
+        <v>785.1923225773131</v>
       </c>
       <c r="S13">
-        <v>0.08314109718222601</v>
+        <v>0.06442995553084301</v>
       </c>
       <c r="T13">
-        <v>0.08314109718222601</v>
+        <v>0.05282499298180142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.309849133771223</v>
+        <v>0.330226</v>
       </c>
       <c r="H14">
-        <v>0.309849133771223</v>
+        <v>0.9906779999999999</v>
       </c>
       <c r="I14">
-        <v>0.1568541796505542</v>
+        <v>0.115295644696716</v>
       </c>
       <c r="J14">
-        <v>0.1568541796505542</v>
+        <v>0.1214995588537212</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>50.99253468864609</v>
+        <v>54.347693728133</v>
       </c>
       <c r="R14">
-        <v>50.99253468864609</v>
+        <v>326.086162368798</v>
       </c>
       <c r="S14">
-        <v>0.03716332190231348</v>
+        <v>0.02675741514089525</v>
       </c>
       <c r="T14">
-        <v>0.03716332190231348</v>
+        <v>0.0219379364052534</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.309849133771223</v>
+        <v>0.330226</v>
       </c>
       <c r="H15">
-        <v>0.309849133771223</v>
+        <v>0.9906779999999999</v>
       </c>
       <c r="I15">
-        <v>0.1568541796505542</v>
+        <v>0.115295644696716</v>
       </c>
       <c r="J15">
-        <v>0.1568541796505542</v>
+        <v>0.1214995588537212</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>34.50829522914353</v>
+        <v>39.21906897812799</v>
       </c>
       <c r="R15">
-        <v>34.50829522914353</v>
+        <v>352.9716208031519</v>
       </c>
       <c r="S15">
-        <v>0.02514962026757764</v>
+        <v>0.01930902377084598</v>
       </c>
       <c r="T15">
-        <v>0.02514962026757764</v>
+        <v>0.02374669600754488</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.309849133771223</v>
+        <v>0.330226</v>
       </c>
       <c r="H16">
-        <v>0.309849133771223</v>
+        <v>0.9906779999999999</v>
       </c>
       <c r="I16">
-        <v>0.1568541796505542</v>
+        <v>0.115295644696716</v>
       </c>
       <c r="J16">
-        <v>0.1568541796505542</v>
+        <v>0.1214995588537212</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>26.03403577194324</v>
+        <v>27.914650032282</v>
       </c>
       <c r="R16">
-        <v>26.03403577194324</v>
+        <v>251.231850290538</v>
       </c>
       <c r="S16">
-        <v>0.01897358618700896</v>
+        <v>0.01374343285223767</v>
       </c>
       <c r="T16">
-        <v>0.01897358618700896</v>
+        <v>0.01690200011742462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.309849133771223</v>
+        <v>0.330226</v>
       </c>
       <c r="H17">
-        <v>0.309849133771223</v>
+        <v>0.9906779999999999</v>
       </c>
       <c r="I17">
-        <v>0.1568541796505542</v>
+        <v>0.115295644696716</v>
       </c>
       <c r="J17">
-        <v>0.1568541796505542</v>
+        <v>0.1214995588537212</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>24.47848361909632</v>
+        <v>26.29777921857666</v>
       </c>
       <c r="R17">
-        <v>24.47848361909632</v>
+        <v>236.68001296719</v>
       </c>
       <c r="S17">
-        <v>0.0178399009182718</v>
+        <v>0.01294738649546071</v>
       </c>
       <c r="T17">
-        <v>0.0178399009182718</v>
+        <v>0.01592300340238416</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.309849133771223</v>
+        <v>0.330226</v>
       </c>
       <c r="H18">
-        <v>0.309849133771223</v>
+        <v>0.9906779999999999</v>
       </c>
       <c r="I18">
-        <v>0.1568541796505542</v>
+        <v>0.115295644696716</v>
       </c>
       <c r="J18">
-        <v>0.1568541796505542</v>
+        <v>0.1214995588537212</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>35.965662903423</v>
+        <v>40.19949544218399</v>
       </c>
       <c r="R18">
-        <v>35.965662903423</v>
+        <v>361.795458979656</v>
       </c>
       <c r="S18">
-        <v>0.02621174876030646</v>
+        <v>0.01979172462003191</v>
       </c>
       <c r="T18">
-        <v>0.02621174876030646</v>
+        <v>0.02434033297564002</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.330226</v>
+      </c>
+      <c r="H19">
+        <v>0.9906779999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.115295644696716</v>
+      </c>
+      <c r="J19">
+        <v>0.1214995588537212</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.9082645</v>
+      </c>
+      <c r="N19">
+        <v>279.816529</v>
+      </c>
+      <c r="O19">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P19">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q19">
+        <v>46.201346552777</v>
+      </c>
+      <c r="R19">
+        <v>277.208079316662</v>
+      </c>
+      <c r="S19">
+        <v>0.02274666181724455</v>
+      </c>
+      <c r="T19">
+        <v>0.01864958994547411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.518098</v>
+      </c>
+      <c r="I20">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J20">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>164.5772705</v>
+      </c>
+      <c r="N20">
+        <v>329.154541</v>
+      </c>
+      <c r="O20">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P20">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q20">
+        <v>138.140565230503</v>
+      </c>
+      <c r="R20">
+        <v>828.843391383018</v>
+      </c>
+      <c r="S20">
+        <v>0.06801179954683365</v>
+      </c>
+      <c r="T20">
+        <v>0.05576168420636755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.518098</v>
+      </c>
+      <c r="I21">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J21">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>118.764328</v>
+      </c>
+      <c r="N21">
+        <v>356.292984</v>
+      </c>
+      <c r="O21">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P21">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q21">
+        <v>99.686738936048</v>
+      </c>
+      <c r="R21">
+        <v>897.1806504244321</v>
+      </c>
+      <c r="S21">
+        <v>0.04907953355108293</v>
+      </c>
+      <c r="T21">
+        <v>0.06035917596152005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H22">
+        <v>2.518098</v>
+      </c>
+      <c r="I22">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J22">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N22">
+        <v>253.595871</v>
+      </c>
+      <c r="O22">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P22">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q22">
+        <v>70.95325061926201</v>
+      </c>
+      <c r="R22">
+        <v>638.5792555733581</v>
+      </c>
+      <c r="S22">
+        <v>0.03493295579224934</v>
+      </c>
+      <c r="T22">
+        <v>0.04296137866358867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H23">
+        <v>2.518098</v>
+      </c>
+      <c r="I23">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J23">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N23">
+        <v>238.907105</v>
+      </c>
+      <c r="O23">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P23">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q23">
+        <v>66.84350036514333</v>
+      </c>
+      <c r="R23">
+        <v>601.59150328629</v>
+      </c>
+      <c r="S23">
+        <v>0.03290957106087611</v>
+      </c>
+      <c r="T23">
+        <v>0.04047297206714671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.309849133771223</v>
-      </c>
-      <c r="H19">
-        <v>0.309849133771223</v>
-      </c>
-      <c r="I19">
-        <v>0.1568541796505542</v>
-      </c>
-      <c r="J19">
-        <v>0.1568541796505542</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N19">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O19">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P19">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q19">
-        <v>43.24373396513133</v>
-      </c>
-      <c r="R19">
-        <v>43.24373396513133</v>
-      </c>
-      <c r="S19">
-        <v>0.03151600161507587</v>
-      </c>
-      <c r="T19">
-        <v>0.03151600161507587</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H24">
+        <v>2.518098</v>
+      </c>
+      <c r="I24">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J24">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>121.733284</v>
+      </c>
+      <c r="N24">
+        <v>365.199852</v>
+      </c>
+      <c r="O24">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P24">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q24">
+        <v>102.178779657944</v>
+      </c>
+      <c r="R24">
+        <v>919.6090169214959</v>
+      </c>
+      <c r="S24">
+        <v>0.05030645899298573</v>
+      </c>
+      <c r="T24">
+        <v>0.06186807800848831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8393660000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.518098</v>
+      </c>
+      <c r="I25">
+        <v>0.2930576154103668</v>
+      </c>
+      <c r="J25">
+        <v>0.3088266784469199</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>117.434240340307</v>
+      </c>
+      <c r="R25">
+        <v>704.605442041842</v>
+      </c>
+      <c r="S25">
+        <v>0.05781729646633909</v>
+      </c>
+      <c r="T25">
+        <v>0.04740338953980856</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.320466</v>
+      </c>
+      <c r="H26">
+        <v>0.961398</v>
+      </c>
+      <c r="I26">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J26">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>52.741419568053</v>
+      </c>
+      <c r="R26">
+        <v>316.448517408318</v>
+      </c>
+      <c r="S26">
+        <v>0.02596658591553099</v>
+      </c>
+      <c r="T26">
+        <v>0.02128954936330252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.320466</v>
+      </c>
+      <c r="H27">
+        <v>0.961398</v>
+      </c>
+      <c r="I27">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J27">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>38.05992913684799</v>
+      </c>
+      <c r="R27">
+        <v>342.539362231632</v>
+      </c>
+      <c r="S27">
+        <v>0.01873833559970423</v>
+      </c>
+      <c r="T27">
+        <v>0.02304485014127863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.320466</v>
+      </c>
+      <c r="H28">
+        <v>0.961398</v>
+      </c>
+      <c r="I28">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J28">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>27.089618131962</v>
+      </c>
+      <c r="R28">
+        <v>243.806563187658</v>
+      </c>
+      <c r="S28">
+        <v>0.0133372385954625</v>
+      </c>
+      <c r="T28">
+        <v>0.01640245277364774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.320466</v>
+      </c>
+      <c r="H29">
+        <v>0.961398</v>
+      </c>
+      <c r="I29">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J29">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>25.52053477031</v>
+      </c>
+      <c r="R29">
+        <v>229.68481293279</v>
+      </c>
+      <c r="S29">
+        <v>0.01256471979993795</v>
+      </c>
+      <c r="T29">
+        <v>0.01545239081219663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.320466</v>
+      </c>
+      <c r="H30">
+        <v>0.961398</v>
+      </c>
+      <c r="I30">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J30">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>39.01137859034399</v>
+      </c>
+      <c r="R30">
+        <v>351.102407313096</v>
+      </c>
+      <c r="S30">
+        <v>0.01920676997596539</v>
+      </c>
+      <c r="T30">
+        <v>0.02362094186215336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.320466</v>
+      </c>
+      <c r="H31">
+        <v>0.961398</v>
+      </c>
+      <c r="I31">
+        <v>0.1118880223646164</v>
+      </c>
+      <c r="J31">
+        <v>0.1179085766342342</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>44.835841891257</v>
+      </c>
+      <c r="R31">
+        <v>269.015051347542</v>
+      </c>
+      <c r="S31">
+        <v>0.02207437247801533</v>
+      </c>
+      <c r="T31">
+        <v>0.01809839168165531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.101233</v>
+      </c>
+      <c r="H32">
+        <v>0.202466</v>
+      </c>
+      <c r="I32">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J32">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>16.6606508245265</v>
+      </c>
+      <c r="R32">
+        <v>66.642603298106</v>
+      </c>
+      <c r="S32">
+        <v>0.008202665468370901</v>
+      </c>
+      <c r="T32">
+        <v>0.004483481244386204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.101233</v>
+      </c>
+      <c r="H33">
+        <v>0.202466</v>
+      </c>
+      <c r="I33">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J33">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>12.022869216424</v>
+      </c>
+      <c r="R33">
+        <v>72.13721529854401</v>
+      </c>
+      <c r="S33">
+        <v>0.005919311027581267</v>
+      </c>
+      <c r="T33">
+        <v>0.004853139520473435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.101233</v>
+      </c>
+      <c r="H34">
+        <v>0.202466</v>
+      </c>
+      <c r="I34">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J34">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>8.557423602981</v>
+      </c>
+      <c r="R34">
+        <v>51.34454161788601</v>
+      </c>
+      <c r="S34">
+        <v>0.004213141720914092</v>
+      </c>
+      <c r="T34">
+        <v>0.00345428116479269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.101233</v>
+      </c>
+      <c r="H35">
+        <v>0.202466</v>
+      </c>
+      <c r="I35">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J35">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>8.061760986821666</v>
+      </c>
+      <c r="R35">
+        <v>48.37056592093001</v>
+      </c>
+      <c r="S35">
+        <v>0.003969108359411354</v>
+      </c>
+      <c r="T35">
+        <v>0.003254202482408121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.101233</v>
+      </c>
+      <c r="H36">
+        <v>0.202466</v>
+      </c>
+      <c r="I36">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J36">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>12.323425539172</v>
+      </c>
+      <c r="R36">
+        <v>73.940553235032</v>
+      </c>
+      <c r="S36">
+        <v>0.006067286217498593</v>
+      </c>
+      <c r="T36">
+        <v>0.004974461789043394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.101233</v>
+      </c>
+      <c r="H37">
+        <v>0.202466</v>
+      </c>
+      <c r="I37">
+        <v>0.03534465487145972</v>
+      </c>
+      <c r="J37">
+        <v>0.02483100430500881</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>14.1633333401285</v>
+      </c>
+      <c r="R37">
+        <v>56.653333360514</v>
+      </c>
+      <c r="S37">
+        <v>0.006973142077683518</v>
+      </c>
+      <c r="T37">
+        <v>0.003811438103904963</v>
       </c>
     </row>
   </sheetData>
